--- a/outputs/train-p__Planctomycetota.xlsx
+++ b/outputs/train-p__Planctomycetota.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="342">
   <si>
     <t>Row</t>
   </si>
@@ -1069,7 +1069,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1097,11 +1097,31 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1123,6 +1143,26 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1145,30 +1185,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="37" t="s">
         <v>275</v>
       </c>
       <c r="B2">
@@ -1191,7 +1231,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="37" t="s">
         <v>276</v>
       </c>
       <c r="B3">
@@ -1214,7 +1254,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="37" t="s">
         <v>277</v>
       </c>
       <c r="B4">
@@ -1237,7 +1277,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="37" t="s">
         <v>278</v>
       </c>
       <c r="B5">
@@ -1260,7 +1300,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="37" t="s">
         <v>279</v>
       </c>
       <c r="B6">
@@ -1283,7 +1323,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="37" t="s">
         <v>280</v>
       </c>
       <c r="B7">
@@ -1306,7 +1346,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="37" t="s">
         <v>281</v>
       </c>
       <c r="B8">
@@ -1329,7 +1369,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="37" t="s">
         <v>282</v>
       </c>
       <c r="B9">
@@ -1352,7 +1392,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="37" t="s">
         <v>283</v>
       </c>
       <c r="B10">
@@ -1375,7 +1415,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="37" t="s">
         <v>284</v>
       </c>
       <c r="B11">
@@ -1398,7 +1438,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="37" t="s">
         <v>285</v>
       </c>
       <c r="B12">
@@ -1421,7 +1461,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="37" t="s">
         <v>286</v>
       </c>
       <c r="B13">
@@ -1444,7 +1484,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="37" t="s">
         <v>287</v>
       </c>
       <c r="B14">
@@ -1467,7 +1507,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="37" t="s">
         <v>288</v>
       </c>
       <c r="B15">
@@ -1490,7 +1530,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="37" t="s">
         <v>289</v>
       </c>
       <c r="B16">
@@ -1513,7 +1553,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="37" t="s">
         <v>290</v>
       </c>
       <c r="B17">
@@ -1536,7 +1576,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="37" t="s">
         <v>291</v>
       </c>
       <c r="B18">
@@ -1559,7 +1599,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="37" t="s">
         <v>292</v>
       </c>
       <c r="B19">
@@ -1582,7 +1622,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B20">
@@ -1605,7 +1645,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B21">
@@ -1628,7 +1668,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="37" t="s">
         <v>295</v>
       </c>
       <c r="B22">
@@ -1651,7 +1691,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="37" t="s">
         <v>296</v>
       </c>
       <c r="B23">
@@ -1674,7 +1714,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="37" t="s">
         <v>297</v>
       </c>
       <c r="B24">
@@ -1697,7 +1737,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="37" t="s">
         <v>298</v>
       </c>
       <c r="B25">
@@ -1720,7 +1760,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="37" t="s">
         <v>299</v>
       </c>
       <c r="B26">
@@ -1743,7 +1783,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="37" t="s">
         <v>300</v>
       </c>
       <c r="B27">
@@ -1766,7 +1806,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="37" t="s">
         <v>301</v>
       </c>
       <c r="B28">
@@ -1789,7 +1829,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="37" t="s">
         <v>302</v>
       </c>
       <c r="B29">
@@ -1812,7 +1852,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="37" t="s">
         <v>303</v>
       </c>
       <c r="B30">
@@ -1835,7 +1875,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="37" t="s">
         <v>304</v>
       </c>
       <c r="B31">
@@ -1858,7 +1898,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="37" t="s">
         <v>305</v>
       </c>
       <c r="B32">
@@ -1881,7 +1921,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="37" t="s">
         <v>306</v>
       </c>
       <c r="B33">
@@ -1904,7 +1944,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="37" t="s">
         <v>307</v>
       </c>
       <c r="B34">
@@ -1927,7 +1967,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="37" t="s">
         <v>308</v>
       </c>
       <c r="B35">
@@ -1950,7 +1990,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="37" t="s">
         <v>309</v>
       </c>
       <c r="B36">
@@ -1973,7 +2013,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="37" t="s">
         <v>310</v>
       </c>
       <c r="B37">
@@ -1996,7 +2036,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="37" t="s">
         <v>311</v>
       </c>
       <c r="B38">
@@ -2019,7 +2059,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="37" t="s">
         <v>312</v>
       </c>
       <c r="B39">
@@ -2042,7 +2082,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="37" t="s">
         <v>313</v>
       </c>
       <c r="B40">
@@ -2065,7 +2105,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="37" t="s">
         <v>314</v>
       </c>
       <c r="B41">
@@ -2088,7 +2128,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="37" t="s">
         <v>315</v>
       </c>
       <c r="B42">
@@ -2111,7 +2151,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="37" t="s">
         <v>316</v>
       </c>
       <c r="B43">
@@ -2134,7 +2174,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="37" t="s">
         <v>317</v>
       </c>
       <c r="B44">
@@ -2157,7 +2197,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="37" t="s">
         <v>318</v>
       </c>
       <c r="B45">
@@ -2180,7 +2220,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="37" t="s">
         <v>319</v>
       </c>
       <c r="B46">
@@ -2203,7 +2243,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="37" t="s">
         <v>320</v>
       </c>
       <c r="B47">
@@ -2226,7 +2266,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="37" t="s">
         <v>321</v>
       </c>
       <c r="B48">
@@ -2249,7 +2289,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="37" t="s">
         <v>322</v>
       </c>
       <c r="B49">
@@ -2272,7 +2312,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="37" t="s">
         <v>323</v>
       </c>
       <c r="B50">
@@ -2295,7 +2335,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="37" t="s">
         <v>324</v>
       </c>
       <c r="B51">
@@ -2318,7 +2358,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="37" t="s">
         <v>325</v>
       </c>
       <c r="B52">
@@ -2341,7 +2381,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="37" t="s">
         <v>326</v>
       </c>
       <c r="B53">
@@ -2364,7 +2404,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="37" t="s">
         <v>327</v>
       </c>
       <c r="B54">
@@ -2387,7 +2427,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="37" t="s">
         <v>328</v>
       </c>
       <c r="B55">
@@ -2410,7 +2450,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="37" t="s">
         <v>329</v>
       </c>
       <c r="B56">
@@ -2433,7 +2473,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="37" t="s">
         <v>330</v>
       </c>
       <c r="B57">
@@ -2456,7 +2496,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="37" t="s">
         <v>331</v>
       </c>
       <c r="B58">
@@ -2479,7 +2519,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="37" t="s">
         <v>332</v>
       </c>
       <c r="B59">
@@ -2502,7 +2542,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="37" t="s">
         <v>333</v>
       </c>
       <c r="B60">
@@ -2525,7 +2565,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="37" t="s">
         <v>334</v>
       </c>
       <c r="B61">
@@ -2548,7 +2588,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="37" t="s">
         <v>335</v>
       </c>
       <c r="B62">
@@ -2571,7 +2611,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="37" t="s">
         <v>336</v>
       </c>
       <c r="B63">
@@ -2594,7 +2634,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="37" t="s">
         <v>337</v>
       </c>
       <c r="B64">
@@ -2617,7 +2657,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="37" t="s">
         <v>338</v>
       </c>
       <c r="B65">
@@ -2640,7 +2680,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="37" t="s">
         <v>339</v>
       </c>
       <c r="B66">
@@ -2663,7 +2703,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="37" t="s">
         <v>340</v>
       </c>
       <c r="B67">
@@ -2686,7 +2726,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="37" t="s">
         <v>341</v>
       </c>
       <c r="B68">
@@ -2727,30 +2767,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="39" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="39" t="s">
         <v>275</v>
       </c>
       <c r="B2">
@@ -2773,7 +2813,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="39" t="s">
         <v>276</v>
       </c>
       <c r="B3">
@@ -2796,7 +2836,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="39" t="s">
         <v>277</v>
       </c>
       <c r="B4">
@@ -2819,7 +2859,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="39" t="s">
         <v>278</v>
       </c>
       <c r="B5">
@@ -2842,7 +2882,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="39" t="s">
         <v>279</v>
       </c>
       <c r="B6">
@@ -2865,7 +2905,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="39" t="s">
         <v>280</v>
       </c>
       <c r="B7">
@@ -2888,7 +2928,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="39" t="s">
         <v>281</v>
       </c>
       <c r="B8">
@@ -2911,7 +2951,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="39" t="s">
         <v>282</v>
       </c>
       <c r="B9">
@@ -2934,7 +2974,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="39" t="s">
         <v>283</v>
       </c>
       <c r="B10">
@@ -2957,7 +2997,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="39" t="s">
         <v>284</v>
       </c>
       <c r="B11">
@@ -2980,7 +3020,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="39" t="s">
         <v>285</v>
       </c>
       <c r="B12">
@@ -3003,7 +3043,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="39" t="s">
         <v>286</v>
       </c>
       <c r="B13">
@@ -3026,7 +3066,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="39" t="s">
         <v>287</v>
       </c>
       <c r="B14">
@@ -3049,7 +3089,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="39" t="s">
         <v>288</v>
       </c>
       <c r="B15">
@@ -3072,7 +3112,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="39" t="s">
         <v>289</v>
       </c>
       <c r="B16">
@@ -3095,7 +3135,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="39" t="s">
         <v>290</v>
       </c>
       <c r="B17">
@@ -3118,7 +3158,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="39" t="s">
         <v>291</v>
       </c>
       <c r="B18">
@@ -3141,7 +3181,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="39" t="s">
         <v>292</v>
       </c>
       <c r="B19">
@@ -3164,7 +3204,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="39" t="s">
         <v>293</v>
       </c>
       <c r="B20">
@@ -3187,7 +3227,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="39" t="s">
         <v>294</v>
       </c>
       <c r="B21">
@@ -3210,7 +3250,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="39" t="s">
         <v>295</v>
       </c>
       <c r="B22">
@@ -3233,7 +3273,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="39" t="s">
         <v>296</v>
       </c>
       <c r="B23">
@@ -3256,7 +3296,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="39" t="s">
         <v>297</v>
       </c>
       <c r="B24">
@@ -3279,7 +3319,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="39" t="s">
         <v>298</v>
       </c>
       <c r="B25">
@@ -3302,7 +3342,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="39" t="s">
         <v>299</v>
       </c>
       <c r="B26">
@@ -3325,7 +3365,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="39" t="s">
         <v>300</v>
       </c>
       <c r="B27">
@@ -3348,7 +3388,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="39" t="s">
         <v>301</v>
       </c>
       <c r="B28">
@@ -3371,7 +3411,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="39" t="s">
         <v>302</v>
       </c>
       <c r="B29">
@@ -3394,7 +3434,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="39" t="s">
         <v>303</v>
       </c>
       <c r="B30">
@@ -3417,7 +3457,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="39" t="s">
         <v>304</v>
       </c>
       <c r="B31">
@@ -3440,7 +3480,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="39" t="s">
         <v>305</v>
       </c>
       <c r="B32">
@@ -3463,7 +3503,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="39" t="s">
         <v>306</v>
       </c>
       <c r="B33">
@@ -3486,7 +3526,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="39" t="s">
         <v>307</v>
       </c>
       <c r="B34">
@@ -3509,7 +3549,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="39" t="s">
         <v>308</v>
       </c>
       <c r="B35">
@@ -3532,7 +3572,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="39" t="s">
         <v>309</v>
       </c>
       <c r="B36">
@@ -3555,7 +3595,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="39" t="s">
         <v>310</v>
       </c>
       <c r="B37">
@@ -3578,7 +3618,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="39" t="s">
         <v>311</v>
       </c>
       <c r="B38">
@@ -3601,7 +3641,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="39" t="s">
         <v>312</v>
       </c>
       <c r="B39">
@@ -3624,7 +3664,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="39" t="s">
         <v>313</v>
       </c>
       <c r="B40">
@@ -3647,7 +3687,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="39" t="s">
         <v>314</v>
       </c>
       <c r="B41">
@@ -3670,7 +3710,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="39" t="s">
         <v>315</v>
       </c>
       <c r="B42">
@@ -3693,7 +3733,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="39" t="s">
         <v>316</v>
       </c>
       <c r="B43">
@@ -3716,7 +3756,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="39" t="s">
         <v>317</v>
       </c>
       <c r="B44">
@@ -3739,7 +3779,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="39" t="s">
         <v>318</v>
       </c>
       <c r="B45">
@@ -3762,7 +3802,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="39" t="s">
         <v>319</v>
       </c>
       <c r="B46">
@@ -3785,7 +3825,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="39" t="s">
         <v>320</v>
       </c>
       <c r="B47">
@@ -3808,7 +3848,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="39" t="s">
         <v>321</v>
       </c>
       <c r="B48">
@@ -3831,7 +3871,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="39" t="s">
         <v>322</v>
       </c>
       <c r="B49">
@@ -3854,7 +3894,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="39" t="s">
         <v>323</v>
       </c>
       <c r="B50">
@@ -3877,7 +3917,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="39" t="s">
         <v>324</v>
       </c>
       <c r="B51">
@@ -3900,7 +3940,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="39" t="s">
         <v>325</v>
       </c>
       <c r="B52">
@@ -3923,7 +3963,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="39" t="s">
         <v>326</v>
       </c>
       <c r="B53">
@@ -3946,7 +3986,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="39" t="s">
         <v>327</v>
       </c>
       <c r="B54">
@@ -3969,7 +4009,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="39" t="s">
         <v>328</v>
       </c>
       <c r="B55">
@@ -3992,7 +4032,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="39" t="s">
         <v>329</v>
       </c>
       <c r="B56">
@@ -4015,7 +4055,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="39" t="s">
         <v>330</v>
       </c>
       <c r="B57">
@@ -4038,7 +4078,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="39" t="s">
         <v>331</v>
       </c>
       <c r="B58">
@@ -4061,7 +4101,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="39" t="s">
         <v>332</v>
       </c>
       <c r="B59">
@@ -4084,7 +4124,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="39" t="s">
         <v>333</v>
       </c>
       <c r="B60">
@@ -4107,7 +4147,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="39" t="s">
         <v>334</v>
       </c>
       <c r="B61">
@@ -4130,7 +4170,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="39" t="s">
         <v>335</v>
       </c>
       <c r="B62">
@@ -4153,7 +4193,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="39" t="s">
         <v>336</v>
       </c>
       <c r="B63">
@@ -4176,7 +4216,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="39" t="s">
         <v>337</v>
       </c>
       <c r="B64">
@@ -4199,7 +4239,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="39" t="s">
         <v>338</v>
       </c>
       <c r="B65">
@@ -4222,7 +4262,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="39" t="s">
         <v>339</v>
       </c>
       <c r="B66">
@@ -4245,7 +4285,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="39" t="s">
         <v>340</v>
       </c>
       <c r="B67">
@@ -4268,7 +4308,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="39" t="s">
         <v>341</v>
       </c>
       <c r="B68">
@@ -4309,30 +4349,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -4355,7 +4395,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -4378,7 +4418,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -4401,7 +4441,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -4424,7 +4464,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -4447,7 +4487,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -4470,7 +4510,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -4493,7 +4533,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -4516,7 +4556,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -4539,7 +4579,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -4562,7 +4602,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -4585,7 +4625,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -4608,7 +4648,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -4631,7 +4671,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -4654,7 +4694,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -4677,7 +4717,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -4700,7 +4740,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -4723,7 +4763,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -4746,7 +4786,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -4769,7 +4809,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -4792,7 +4832,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -4815,7 +4855,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -4838,7 +4878,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -4861,7 +4901,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -4884,7 +4924,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -4907,7 +4947,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -4930,7 +4970,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -4953,7 +4993,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -4976,7 +5016,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -4999,7 +5039,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -5022,7 +5062,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -5045,7 +5085,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -5068,7 +5108,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -5091,7 +5131,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -5114,7 +5154,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -5137,7 +5177,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -5160,7 +5200,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -5183,7 +5223,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -5206,7 +5246,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -5229,7 +5269,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -5252,7 +5292,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -5275,7 +5315,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -5298,7 +5338,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -5321,7 +5361,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -5344,7 +5384,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -5367,7 +5407,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -5390,7 +5430,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -5413,7 +5453,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -5436,7 +5476,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -5459,7 +5499,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -5482,7 +5522,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -5505,7 +5545,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -5528,7 +5568,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -5551,7 +5591,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -5574,7 +5614,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -5597,7 +5637,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -5620,7 +5660,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -5643,7 +5683,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -5666,7 +5706,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -5689,7 +5729,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -5712,7 +5752,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -5735,7 +5775,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -5758,7 +5798,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -5781,7 +5821,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -5804,7 +5844,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -5827,7 +5867,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -5850,7 +5890,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -5891,30 +5931,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -5937,7 +5977,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -5960,7 +6000,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -5983,7 +6023,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -6006,7 +6046,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -6029,7 +6069,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -6052,7 +6092,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -6075,7 +6115,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -6098,7 +6138,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -6121,7 +6161,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -6144,7 +6184,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -6167,7 +6207,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -6190,7 +6230,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -6213,7 +6253,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -6236,7 +6276,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -6259,7 +6299,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -6282,7 +6322,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -6305,7 +6345,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -6328,7 +6368,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -6351,7 +6391,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -6374,7 +6414,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -6397,7 +6437,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -6420,7 +6460,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -6443,7 +6483,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -6466,7 +6506,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -6489,7 +6529,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -6512,7 +6552,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -6535,7 +6575,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -6558,7 +6598,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -6581,7 +6621,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -6604,7 +6644,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -6627,7 +6667,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -6650,7 +6690,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -6673,7 +6713,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -6696,7 +6736,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -6719,7 +6759,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -6742,7 +6782,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -6765,7 +6805,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -6788,7 +6828,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -6811,7 +6851,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -6834,7 +6874,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -6857,7 +6897,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -6880,7 +6920,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -6903,7 +6943,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -6926,7 +6966,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -6949,7 +6989,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -6972,7 +7012,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -6995,7 +7035,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -7018,7 +7058,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -7041,7 +7081,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -7064,7 +7104,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -7087,7 +7127,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -7110,7 +7150,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -7133,7 +7173,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -7156,7 +7196,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -7179,7 +7219,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -7202,7 +7242,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -7225,7 +7265,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -7248,7 +7288,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -7271,7 +7311,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -7294,7 +7334,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="23" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -7317,7 +7357,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -7340,7 +7380,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="23" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -7363,7 +7403,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -7386,7 +7426,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -7409,7 +7449,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -7432,7 +7472,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -7473,30 +7513,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="25" t="s">
         <v>74</v>
       </c>
       <c r="B2">
@@ -7519,7 +7559,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="25" t="s">
         <v>75</v>
       </c>
       <c r="B3">
@@ -7542,7 +7582,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B4">
@@ -7565,7 +7605,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B5">
@@ -7588,7 +7628,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B6">
@@ -7611,7 +7651,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="25" t="s">
         <v>79</v>
       </c>
       <c r="B7">
@@ -7634,7 +7674,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B8">
@@ -7657,7 +7697,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B9">
@@ -7680,7 +7720,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B10">
@@ -7703,7 +7743,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B11">
@@ -7726,7 +7766,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B12">
@@ -7749,7 +7789,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="25" t="s">
         <v>85</v>
       </c>
       <c r="B13">
@@ -7772,7 +7812,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B14">
@@ -7795,7 +7835,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B15">
@@ -7818,7 +7858,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B16">
@@ -7841,7 +7881,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B17">
@@ -7864,7 +7904,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B18">
@@ -7887,7 +7927,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="25" t="s">
         <v>91</v>
       </c>
       <c r="B19">
@@ -7910,7 +7950,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B20">
@@ -7933,7 +7973,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B21">
@@ -7956,7 +7996,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B22">
@@ -7979,7 +8019,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B23">
@@ -8002,7 +8042,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B24">
@@ -8025,7 +8065,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B25">
@@ -8048,7 +8088,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B26">
@@ -8071,7 +8111,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B27">
@@ -8094,7 +8134,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B28">
@@ -8117,7 +8157,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B29">
@@ -8140,7 +8180,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B30">
@@ -8163,7 +8203,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="25" t="s">
         <v>103</v>
       </c>
       <c r="B31">
@@ -8186,7 +8226,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B32">
@@ -8209,7 +8249,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B33">
@@ -8232,7 +8272,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="25" t="s">
         <v>106</v>
       </c>
       <c r="B34">
@@ -8255,7 +8295,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B35">
@@ -8278,7 +8318,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B36">
@@ -8301,7 +8341,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B37">
@@ -8324,7 +8364,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="25" t="s">
         <v>110</v>
       </c>
       <c r="B38">
@@ -8347,7 +8387,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B39">
@@ -8370,7 +8410,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="25" t="s">
         <v>112</v>
       </c>
       <c r="B40">
@@ -8393,7 +8433,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="25" t="s">
         <v>113</v>
       </c>
       <c r="B41">
@@ -8416,7 +8456,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B42">
@@ -8439,7 +8479,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="25" t="s">
         <v>115</v>
       </c>
       <c r="B43">
@@ -8462,7 +8502,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="25" t="s">
         <v>116</v>
       </c>
       <c r="B44">
@@ -8485,7 +8525,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="25" t="s">
         <v>117</v>
       </c>
       <c r="B45">
@@ -8508,7 +8548,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="25" t="s">
         <v>118</v>
       </c>
       <c r="B46">
@@ -8531,7 +8571,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="25" t="s">
         <v>119</v>
       </c>
       <c r="B47">
@@ -8554,7 +8594,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="25" t="s">
         <v>120</v>
       </c>
       <c r="B48">
@@ -8577,7 +8617,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="25" t="s">
         <v>121</v>
       </c>
       <c r="B49">
@@ -8600,7 +8640,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="25" t="s">
         <v>122</v>
       </c>
       <c r="B50">
@@ -8623,7 +8663,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="25" t="s">
         <v>123</v>
       </c>
       <c r="B51">
@@ -8646,7 +8686,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="25" t="s">
         <v>124</v>
       </c>
       <c r="B52">
@@ -8669,7 +8709,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="25" t="s">
         <v>125</v>
       </c>
       <c r="B53">
@@ -8692,7 +8732,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="25" t="s">
         <v>126</v>
       </c>
       <c r="B54">
@@ -8715,7 +8755,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B55">
@@ -8738,7 +8778,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="25" t="s">
         <v>128</v>
       </c>
       <c r="B56">
@@ -8761,7 +8801,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="25" t="s">
         <v>129</v>
       </c>
       <c r="B57">
@@ -8784,7 +8824,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="25" t="s">
         <v>130</v>
       </c>
       <c r="B58">
@@ -8807,7 +8847,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B59">
@@ -8830,7 +8870,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="25" t="s">
         <v>132</v>
       </c>
       <c r="B60">
@@ -8853,7 +8893,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="25" t="s">
         <v>133</v>
       </c>
       <c r="B61">
@@ -8876,7 +8916,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="25" t="s">
         <v>134</v>
       </c>
       <c r="B62">
@@ -8899,7 +8939,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="25" t="s">
         <v>135</v>
       </c>
       <c r="B63">
@@ -8922,7 +8962,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="25" t="s">
         <v>136</v>
       </c>
       <c r="B64">
@@ -8945,7 +8985,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="25" t="s">
         <v>137</v>
       </c>
       <c r="B65">
@@ -8968,7 +9008,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="25" t="s">
         <v>138</v>
       </c>
       <c r="B66">
@@ -8991,7 +9031,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B67">
@@ -9014,7 +9054,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B68">
@@ -9055,30 +9095,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="27" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="27" t="s">
         <v>74</v>
       </c>
       <c r="B2">
@@ -9101,7 +9141,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B3">
@@ -9124,7 +9164,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B4">
@@ -9147,7 +9187,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="27" t="s">
         <v>77</v>
       </c>
       <c r="B5">
@@ -9170,7 +9210,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B6">
@@ -9193,7 +9233,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="27" t="s">
         <v>79</v>
       </c>
       <c r="B7">
@@ -9216,7 +9256,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B8">
@@ -9239,7 +9279,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="27" t="s">
         <v>81</v>
       </c>
       <c r="B9">
@@ -9262,7 +9302,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="27" t="s">
         <v>82</v>
       </c>
       <c r="B10">
@@ -9285,7 +9325,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B11">
@@ -9308,7 +9348,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="27" t="s">
         <v>84</v>
       </c>
       <c r="B12">
@@ -9331,7 +9371,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="27" t="s">
         <v>85</v>
       </c>
       <c r="B13">
@@ -9354,7 +9394,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B14">
@@ -9377,7 +9417,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B15">
@@ -9400,7 +9440,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="27" t="s">
         <v>88</v>
       </c>
       <c r="B16">
@@ -9423,7 +9463,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="27" t="s">
         <v>89</v>
       </c>
       <c r="B17">
@@ -9446,7 +9486,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="27" t="s">
         <v>90</v>
       </c>
       <c r="B18">
@@ -9469,7 +9509,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="27" t="s">
         <v>91</v>
       </c>
       <c r="B19">
@@ -9492,7 +9532,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="27" t="s">
         <v>92</v>
       </c>
       <c r="B20">
@@ -9515,7 +9555,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="27" t="s">
         <v>93</v>
       </c>
       <c r="B21">
@@ -9538,7 +9578,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="27" t="s">
         <v>94</v>
       </c>
       <c r="B22">
@@ -9561,7 +9601,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="27" t="s">
         <v>95</v>
       </c>
       <c r="B23">
@@ -9584,7 +9624,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B24">
@@ -9607,7 +9647,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="27" t="s">
         <v>97</v>
       </c>
       <c r="B25">
@@ -9630,7 +9670,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="27" t="s">
         <v>98</v>
       </c>
       <c r="B26">
@@ -9653,7 +9693,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B27">
@@ -9676,7 +9716,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="27" t="s">
         <v>100</v>
       </c>
       <c r="B28">
@@ -9699,7 +9739,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B29">
@@ -9722,7 +9762,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="27" t="s">
         <v>102</v>
       </c>
       <c r="B30">
@@ -9745,7 +9785,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="27" t="s">
         <v>103</v>
       </c>
       <c r="B31">
@@ -9768,7 +9808,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="27" t="s">
         <v>104</v>
       </c>
       <c r="B32">
@@ -9791,7 +9831,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="27" t="s">
         <v>105</v>
       </c>
       <c r="B33">
@@ -9814,7 +9854,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="27" t="s">
         <v>106</v>
       </c>
       <c r="B34">
@@ -9837,7 +9877,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="27" t="s">
         <v>107</v>
       </c>
       <c r="B35">
@@ -9860,7 +9900,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="27" t="s">
         <v>108</v>
       </c>
       <c r="B36">
@@ -9883,7 +9923,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="27" t="s">
         <v>109</v>
       </c>
       <c r="B37">
@@ -9906,7 +9946,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="27" t="s">
         <v>110</v>
       </c>
       <c r="B38">
@@ -9929,7 +9969,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="27" t="s">
         <v>111</v>
       </c>
       <c r="B39">
@@ -9952,7 +9992,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="27" t="s">
         <v>112</v>
       </c>
       <c r="B40">
@@ -9975,7 +10015,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="27" t="s">
         <v>113</v>
       </c>
       <c r="B41">
@@ -9998,7 +10038,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="27" t="s">
         <v>114</v>
       </c>
       <c r="B42">
@@ -10021,7 +10061,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="27" t="s">
         <v>115</v>
       </c>
       <c r="B43">
@@ -10044,7 +10084,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="27" t="s">
         <v>116</v>
       </c>
       <c r="B44">
@@ -10067,7 +10107,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="27" t="s">
         <v>117</v>
       </c>
       <c r="B45">
@@ -10090,7 +10130,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B46">
@@ -10113,7 +10153,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="27" t="s">
         <v>119</v>
       </c>
       <c r="B47">
@@ -10136,7 +10176,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="27" t="s">
         <v>120</v>
       </c>
       <c r="B48">
@@ -10159,7 +10199,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="27" t="s">
         <v>121</v>
       </c>
       <c r="B49">
@@ -10182,7 +10222,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="27" t="s">
         <v>122</v>
       </c>
       <c r="B50">
@@ -10205,7 +10245,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="27" t="s">
         <v>123</v>
       </c>
       <c r="B51">
@@ -10228,7 +10268,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="27" t="s">
         <v>124</v>
       </c>
       <c r="B52">
@@ -10251,7 +10291,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="27" t="s">
         <v>125</v>
       </c>
       <c r="B53">
@@ -10274,7 +10314,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="27" t="s">
         <v>126</v>
       </c>
       <c r="B54">
@@ -10297,7 +10337,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="27" t="s">
         <v>127</v>
       </c>
       <c r="B55">
@@ -10320,7 +10360,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="27" t="s">
         <v>128</v>
       </c>
       <c r="B56">
@@ -10343,7 +10383,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B57">
@@ -10366,7 +10406,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B58">
@@ -10389,7 +10429,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B59">
@@ -10412,7 +10452,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B60">
@@ -10435,7 +10475,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B61">
@@ -10458,7 +10498,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="27" t="s">
         <v>134</v>
       </c>
       <c r="B62">
@@ -10481,7 +10521,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="27" t="s">
         <v>135</v>
       </c>
       <c r="B63">
@@ -10504,7 +10544,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="27" t="s">
         <v>136</v>
       </c>
       <c r="B64">
@@ -10527,7 +10567,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="27" t="s">
         <v>137</v>
       </c>
       <c r="B65">
@@ -10550,7 +10590,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="27" t="s">
         <v>138</v>
       </c>
       <c r="B66">
@@ -10573,7 +10613,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="27" t="s">
         <v>139</v>
       </c>
       <c r="B67">
@@ -10596,7 +10636,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="27" t="s">
         <v>140</v>
       </c>
       <c r="B68">
@@ -10637,30 +10677,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B2">
@@ -10683,7 +10723,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="29" t="s">
         <v>142</v>
       </c>
       <c r="B3">
@@ -10706,7 +10746,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="29" t="s">
         <v>143</v>
       </c>
       <c r="B4">
@@ -10729,7 +10769,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="29" t="s">
         <v>144</v>
       </c>
       <c r="B5">
@@ -10752,7 +10792,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="29" t="s">
         <v>145</v>
       </c>
       <c r="B6">
@@ -10775,7 +10815,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B7">
@@ -10798,7 +10838,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="29" t="s">
         <v>147</v>
       </c>
       <c r="B8">
@@ -10821,7 +10861,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="29" t="s">
         <v>148</v>
       </c>
       <c r="B9">
@@ -10844,7 +10884,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="29" t="s">
         <v>149</v>
       </c>
       <c r="B10">
@@ -10867,7 +10907,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B11">
@@ -10890,7 +10930,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="29" t="s">
         <v>151</v>
       </c>
       <c r="B12">
@@ -10913,7 +10953,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B13">
@@ -10936,7 +10976,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="29" t="s">
         <v>153</v>
       </c>
       <c r="B14">
@@ -10959,7 +10999,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="29" t="s">
         <v>154</v>
       </c>
       <c r="B15">
@@ -10982,7 +11022,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="29" t="s">
         <v>155</v>
       </c>
       <c r="B16">
@@ -11005,7 +11045,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B17">
@@ -11028,7 +11068,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B18">
@@ -11051,7 +11091,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="29" t="s">
         <v>158</v>
       </c>
       <c r="B19">
@@ -11074,7 +11114,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B20">
@@ -11097,7 +11137,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="29" t="s">
         <v>160</v>
       </c>
       <c r="B21">
@@ -11120,7 +11160,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B22">
@@ -11143,7 +11183,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="29" t="s">
         <v>162</v>
       </c>
       <c r="B23">
@@ -11166,7 +11206,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="29" t="s">
         <v>163</v>
       </c>
       <c r="B24">
@@ -11189,7 +11229,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B25">
@@ -11212,7 +11252,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="29" t="s">
         <v>165</v>
       </c>
       <c r="B26">
@@ -11235,7 +11275,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="29" t="s">
         <v>166</v>
       </c>
       <c r="B27">
@@ -11258,7 +11298,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B28">
@@ -11281,7 +11321,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="29" t="s">
         <v>168</v>
       </c>
       <c r="B29">
@@ -11304,7 +11344,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="29" t="s">
         <v>169</v>
       </c>
       <c r="B30">
@@ -11327,7 +11367,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="29" t="s">
         <v>170</v>
       </c>
       <c r="B31">
@@ -11350,7 +11390,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="29" t="s">
         <v>171</v>
       </c>
       <c r="B32">
@@ -11373,7 +11413,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="29" t="s">
         <v>172</v>
       </c>
       <c r="B33">
@@ -11396,7 +11436,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="29" t="s">
         <v>173</v>
       </c>
       <c r="B34">
@@ -11419,7 +11459,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B35">
@@ -11442,7 +11482,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="29" t="s">
         <v>175</v>
       </c>
       <c r="B36">
@@ -11465,7 +11505,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="29" t="s">
         <v>176</v>
       </c>
       <c r="B37">
@@ -11488,7 +11528,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="29" t="s">
         <v>177</v>
       </c>
       <c r="B38">
@@ -11511,7 +11551,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="29" t="s">
         <v>178</v>
       </c>
       <c r="B39">
@@ -11534,7 +11574,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="29" t="s">
         <v>179</v>
       </c>
       <c r="B40">
@@ -11557,7 +11597,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="29" t="s">
         <v>180</v>
       </c>
       <c r="B41">
@@ -11580,7 +11620,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="29" t="s">
         <v>181</v>
       </c>
       <c r="B42">
@@ -11603,7 +11643,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="29" t="s">
         <v>182</v>
       </c>
       <c r="B43">
@@ -11626,7 +11666,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="29" t="s">
         <v>183</v>
       </c>
       <c r="B44">
@@ -11649,7 +11689,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="29" t="s">
         <v>184</v>
       </c>
       <c r="B45">
@@ -11672,7 +11712,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="29" t="s">
         <v>185</v>
       </c>
       <c r="B46">
@@ -11695,7 +11735,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="29" t="s">
         <v>186</v>
       </c>
       <c r="B47">
@@ -11718,7 +11758,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="29" t="s">
         <v>187</v>
       </c>
       <c r="B48">
@@ -11741,7 +11781,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="29" t="s">
         <v>188</v>
       </c>
       <c r="B49">
@@ -11764,7 +11804,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="29" t="s">
         <v>189</v>
       </c>
       <c r="B50">
@@ -11787,7 +11827,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="29" t="s">
         <v>190</v>
       </c>
       <c r="B51">
@@ -11810,7 +11850,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="29" t="s">
         <v>191</v>
       </c>
       <c r="B52">
@@ -11833,7 +11873,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="29" t="s">
         <v>192</v>
       </c>
       <c r="B53">
@@ -11856,7 +11896,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="29" t="s">
         <v>193</v>
       </c>
       <c r="B54">
@@ -11879,7 +11919,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="29" t="s">
         <v>194</v>
       </c>
       <c r="B55">
@@ -11902,7 +11942,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="29" t="s">
         <v>195</v>
       </c>
       <c r="B56">
@@ -11925,7 +11965,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="29" t="s">
         <v>196</v>
       </c>
       <c r="B57">
@@ -11948,7 +11988,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="29" t="s">
         <v>197</v>
       </c>
       <c r="B58">
@@ -11971,7 +12011,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="29" t="s">
         <v>198</v>
       </c>
       <c r="B59">
@@ -11994,7 +12034,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="29" t="s">
         <v>199</v>
       </c>
       <c r="B60">
@@ -12017,7 +12057,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="29" t="s">
         <v>200</v>
       </c>
       <c r="B61">
@@ -12040,7 +12080,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="29" t="s">
         <v>201</v>
       </c>
       <c r="B62">
@@ -12063,7 +12103,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="29" t="s">
         <v>202</v>
       </c>
       <c r="B63">
@@ -12086,7 +12126,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="29" t="s">
         <v>203</v>
       </c>
       <c r="B64">
@@ -12109,7 +12149,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="29" t="s">
         <v>204</v>
       </c>
       <c r="B65">
@@ -12132,7 +12172,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="29" t="s">
         <v>205</v>
       </c>
       <c r="B66">
@@ -12155,7 +12195,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="29" t="s">
         <v>206</v>
       </c>
       <c r="B67">
@@ -12178,7 +12218,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="29" t="s">
         <v>207</v>
       </c>
       <c r="B68">
@@ -12219,30 +12259,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="31" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="31" t="s">
         <v>141</v>
       </c>
       <c r="B2">
@@ -12265,7 +12305,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="31" t="s">
         <v>142</v>
       </c>
       <c r="B3">
@@ -12288,7 +12328,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="31" t="s">
         <v>143</v>
       </c>
       <c r="B4">
@@ -12311,7 +12351,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="31" t="s">
         <v>144</v>
       </c>
       <c r="B5">
@@ -12334,7 +12374,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="31" t="s">
         <v>145</v>
       </c>
       <c r="B6">
@@ -12357,7 +12397,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="31" t="s">
         <v>146</v>
       </c>
       <c r="B7">
@@ -12380,7 +12420,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="31" t="s">
         <v>147</v>
       </c>
       <c r="B8">
@@ -12403,7 +12443,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="31" t="s">
         <v>148</v>
       </c>
       <c r="B9">
@@ -12426,7 +12466,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="31" t="s">
         <v>149</v>
       </c>
       <c r="B10">
@@ -12449,7 +12489,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="31" t="s">
         <v>150</v>
       </c>
       <c r="B11">
@@ -12472,7 +12512,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="31" t="s">
         <v>151</v>
       </c>
       <c r="B12">
@@ -12495,7 +12535,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="31" t="s">
         <v>152</v>
       </c>
       <c r="B13">
@@ -12518,7 +12558,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="31" t="s">
         <v>153</v>
       </c>
       <c r="B14">
@@ -12541,7 +12581,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="31" t="s">
         <v>154</v>
       </c>
       <c r="B15">
@@ -12564,7 +12604,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="31" t="s">
         <v>155</v>
       </c>
       <c r="B16">
@@ -12587,7 +12627,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="31" t="s">
         <v>156</v>
       </c>
       <c r="B17">
@@ -12610,7 +12650,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="31" t="s">
         <v>157</v>
       </c>
       <c r="B18">
@@ -12633,7 +12673,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="31" t="s">
         <v>158</v>
       </c>
       <c r="B19">
@@ -12656,7 +12696,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="31" t="s">
         <v>159</v>
       </c>
       <c r="B20">
@@ -12679,7 +12719,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="31" t="s">
         <v>160</v>
       </c>
       <c r="B21">
@@ -12702,7 +12742,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="31" t="s">
         <v>161</v>
       </c>
       <c r="B22">
@@ -12725,7 +12765,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="31" t="s">
         <v>162</v>
       </c>
       <c r="B23">
@@ -12748,7 +12788,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="31" t="s">
         <v>163</v>
       </c>
       <c r="B24">
@@ -12771,7 +12811,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="31" t="s">
         <v>164</v>
       </c>
       <c r="B25">
@@ -12794,7 +12834,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="31" t="s">
         <v>165</v>
       </c>
       <c r="B26">
@@ -12817,7 +12857,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="31" t="s">
         <v>166</v>
       </c>
       <c r="B27">
@@ -12840,7 +12880,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="31" t="s">
         <v>167</v>
       </c>
       <c r="B28">
@@ -12863,7 +12903,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="31" t="s">
         <v>168</v>
       </c>
       <c r="B29">
@@ -12886,7 +12926,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="31" t="s">
         <v>169</v>
       </c>
       <c r="B30">
@@ -12909,7 +12949,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="31" t="s">
         <v>170</v>
       </c>
       <c r="B31">
@@ -12932,7 +12972,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="31" t="s">
         <v>171</v>
       </c>
       <c r="B32">
@@ -12955,7 +12995,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="31" t="s">
         <v>172</v>
       </c>
       <c r="B33">
@@ -12978,7 +13018,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="31" t="s">
         <v>173</v>
       </c>
       <c r="B34">
@@ -13001,7 +13041,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="31" t="s">
         <v>174</v>
       </c>
       <c r="B35">
@@ -13024,7 +13064,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="31" t="s">
         <v>175</v>
       </c>
       <c r="B36">
@@ -13047,7 +13087,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="31" t="s">
         <v>176</v>
       </c>
       <c r="B37">
@@ -13070,7 +13110,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="31" t="s">
         <v>177</v>
       </c>
       <c r="B38">
@@ -13093,7 +13133,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="31" t="s">
         <v>178</v>
       </c>
       <c r="B39">
@@ -13116,7 +13156,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B40">
@@ -13139,7 +13179,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="31" t="s">
         <v>180</v>
       </c>
       <c r="B41">
@@ -13162,7 +13202,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="31" t="s">
         <v>181</v>
       </c>
       <c r="B42">
@@ -13185,7 +13225,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="31" t="s">
         <v>182</v>
       </c>
       <c r="B43">
@@ -13208,7 +13248,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="31" t="s">
         <v>183</v>
       </c>
       <c r="B44">
@@ -13231,7 +13271,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="31" t="s">
         <v>184</v>
       </c>
       <c r="B45">
@@ -13254,7 +13294,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="31" t="s">
         <v>185</v>
       </c>
       <c r="B46">
@@ -13277,7 +13317,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="31" t="s">
         <v>186</v>
       </c>
       <c r="B47">
@@ -13300,7 +13340,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="31" t="s">
         <v>187</v>
       </c>
       <c r="B48">
@@ -13323,7 +13363,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="31" t="s">
         <v>188</v>
       </c>
       <c r="B49">
@@ -13346,7 +13386,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="31" t="s">
         <v>189</v>
       </c>
       <c r="B50">
@@ -13369,7 +13409,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="31" t="s">
         <v>190</v>
       </c>
       <c r="B51">
@@ -13392,7 +13432,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="31" t="s">
         <v>191</v>
       </c>
       <c r="B52">
@@ -13415,7 +13455,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="31" t="s">
         <v>192</v>
       </c>
       <c r="B53">
@@ -13438,7 +13478,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="31" t="s">
         <v>193</v>
       </c>
       <c r="B54">
@@ -13461,7 +13501,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="31" t="s">
         <v>194</v>
       </c>
       <c r="B55">
@@ -13484,7 +13524,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="31" t="s">
         <v>195</v>
       </c>
       <c r="B56">
@@ -13507,7 +13547,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="31" t="s">
         <v>196</v>
       </c>
       <c r="B57">
@@ -13530,7 +13570,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="31" t="s">
         <v>197</v>
       </c>
       <c r="B58">
@@ -13553,7 +13593,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="31" t="s">
         <v>198</v>
       </c>
       <c r="B59">
@@ -13576,7 +13616,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="31" t="s">
         <v>199</v>
       </c>
       <c r="B60">
@@ -13599,7 +13639,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="31" t="s">
         <v>200</v>
       </c>
       <c r="B61">
@@ -13622,7 +13662,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="31" t="s">
         <v>201</v>
       </c>
       <c r="B62">
@@ -13645,7 +13685,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="31" t="s">
         <v>202</v>
       </c>
       <c r="B63">
@@ -13668,7 +13708,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="31" t="s">
         <v>203</v>
       </c>
       <c r="B64">
@@ -13691,7 +13731,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="31" t="s">
         <v>204</v>
       </c>
       <c r="B65">
@@ -13714,7 +13754,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="31" t="s">
         <v>205</v>
       </c>
       <c r="B66">
@@ -13737,7 +13777,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="31" t="s">
         <v>206</v>
       </c>
       <c r="B67">
@@ -13760,7 +13800,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="31" t="s">
         <v>207</v>
       </c>
       <c r="B68">
@@ -13801,30 +13841,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="33" t="s">
         <v>208</v>
       </c>
       <c r="B2">
@@ -13847,7 +13887,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="33" t="s">
         <v>209</v>
       </c>
       <c r="B3">
@@ -13870,7 +13910,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="33" t="s">
         <v>210</v>
       </c>
       <c r="B4">
@@ -13893,7 +13933,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="33" t="s">
         <v>211</v>
       </c>
       <c r="B5">
@@ -13916,7 +13956,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="33" t="s">
         <v>212</v>
       </c>
       <c r="B6">
@@ -13939,7 +13979,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="33" t="s">
         <v>213</v>
       </c>
       <c r="B7">
@@ -13962,7 +14002,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="33" t="s">
         <v>214</v>
       </c>
       <c r="B8">
@@ -13985,7 +14025,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="33" t="s">
         <v>215</v>
       </c>
       <c r="B9">
@@ -14008,7 +14048,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="33" t="s">
         <v>216</v>
       </c>
       <c r="B10">
@@ -14031,7 +14071,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="33" t="s">
         <v>217</v>
       </c>
       <c r="B11">
@@ -14054,7 +14094,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="33" t="s">
         <v>218</v>
       </c>
       <c r="B12">
@@ -14077,7 +14117,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="33" t="s">
         <v>219</v>
       </c>
       <c r="B13">
@@ -14100,7 +14140,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="33" t="s">
         <v>220</v>
       </c>
       <c r="B14">
@@ -14123,7 +14163,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="33" t="s">
         <v>221</v>
       </c>
       <c r="B15">
@@ -14146,7 +14186,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="33" t="s">
         <v>222</v>
       </c>
       <c r="B16">
@@ -14169,7 +14209,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="33" t="s">
         <v>223</v>
       </c>
       <c r="B17">
@@ -14192,7 +14232,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="33" t="s">
         <v>224</v>
       </c>
       <c r="B18">
@@ -14215,7 +14255,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="33" t="s">
         <v>225</v>
       </c>
       <c r="B19">
@@ -14238,7 +14278,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="33" t="s">
         <v>226</v>
       </c>
       <c r="B20">
@@ -14261,7 +14301,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="33" t="s">
         <v>227</v>
       </c>
       <c r="B21">
@@ -14284,7 +14324,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="33" t="s">
         <v>228</v>
       </c>
       <c r="B22">
@@ -14307,7 +14347,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="33" t="s">
         <v>229</v>
       </c>
       <c r="B23">
@@ -14330,7 +14370,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="33" t="s">
         <v>230</v>
       </c>
       <c r="B24">
@@ -14353,7 +14393,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="33" t="s">
         <v>231</v>
       </c>
       <c r="B25">
@@ -14376,7 +14416,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="33" t="s">
         <v>232</v>
       </c>
       <c r="B26">
@@ -14399,7 +14439,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="33" t="s">
         <v>233</v>
       </c>
       <c r="B27">
@@ -14422,7 +14462,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="33" t="s">
         <v>234</v>
       </c>
       <c r="B28">
@@ -14445,7 +14485,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="33" t="s">
         <v>235</v>
       </c>
       <c r="B29">
@@ -14468,7 +14508,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="33" t="s">
         <v>236</v>
       </c>
       <c r="B30">
@@ -14491,7 +14531,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="33" t="s">
         <v>237</v>
       </c>
       <c r="B31">
@@ -14514,7 +14554,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="33" t="s">
         <v>238</v>
       </c>
       <c r="B32">
@@ -14537,7 +14577,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="33" t="s">
         <v>239</v>
       </c>
       <c r="B33">
@@ -14560,7 +14600,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="33" t="s">
         <v>240</v>
       </c>
       <c r="B34">
@@ -14583,7 +14623,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="33" t="s">
         <v>241</v>
       </c>
       <c r="B35">
@@ -14606,7 +14646,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="33" t="s">
         <v>242</v>
       </c>
       <c r="B36">
@@ -14629,7 +14669,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="33" t="s">
         <v>243</v>
       </c>
       <c r="B37">
@@ -14652,7 +14692,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="33" t="s">
         <v>244</v>
       </c>
       <c r="B38">
@@ -14675,7 +14715,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="33" t="s">
         <v>245</v>
       </c>
       <c r="B39">
@@ -14698,7 +14738,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="33" t="s">
         <v>246</v>
       </c>
       <c r="B40">
@@ -14721,7 +14761,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="33" t="s">
         <v>247</v>
       </c>
       <c r="B41">
@@ -14744,7 +14784,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="33" t="s">
         <v>248</v>
       </c>
       <c r="B42">
@@ -14767,7 +14807,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="33" t="s">
         <v>249</v>
       </c>
       <c r="B43">
@@ -14790,7 +14830,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="33" t="s">
         <v>250</v>
       </c>
       <c r="B44">
@@ -14813,7 +14853,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="33" t="s">
         <v>251</v>
       </c>
       <c r="B45">
@@ -14836,7 +14876,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="33" t="s">
         <v>252</v>
       </c>
       <c r="B46">
@@ -14859,7 +14899,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="33" t="s">
         <v>253</v>
       </c>
       <c r="B47">
@@ -14882,7 +14922,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="33" t="s">
         <v>254</v>
       </c>
       <c r="B48">
@@ -14905,7 +14945,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="33" t="s">
         <v>255</v>
       </c>
       <c r="B49">
@@ -14928,7 +14968,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="33" t="s">
         <v>256</v>
       </c>
       <c r="B50">
@@ -14951,7 +14991,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="33" t="s">
         <v>257</v>
       </c>
       <c r="B51">
@@ -14974,7 +15014,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="33" t="s">
         <v>258</v>
       </c>
       <c r="B52">
@@ -14997,7 +15037,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="33" t="s">
         <v>259</v>
       </c>
       <c r="B53">
@@ -15020,7 +15060,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="33" t="s">
         <v>260</v>
       </c>
       <c r="B54">
@@ -15043,7 +15083,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="33" t="s">
         <v>261</v>
       </c>
       <c r="B55">
@@ -15066,7 +15106,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="33" t="s">
         <v>262</v>
       </c>
       <c r="B56">
@@ -15089,7 +15129,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="33" t="s">
         <v>263</v>
       </c>
       <c r="B57">
@@ -15112,7 +15152,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="33" t="s">
         <v>264</v>
       </c>
       <c r="B58">
@@ -15135,7 +15175,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="33" t="s">
         <v>265</v>
       </c>
       <c r="B59">
@@ -15158,7 +15198,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="33" t="s">
         <v>266</v>
       </c>
       <c r="B60">
@@ -15181,7 +15221,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="33" t="s">
         <v>267</v>
       </c>
       <c r="B61">
@@ -15204,7 +15244,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="33" t="s">
         <v>268</v>
       </c>
       <c r="B62">
@@ -15227,7 +15267,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="33" t="s">
         <v>269</v>
       </c>
       <c r="B63">
@@ -15250,7 +15290,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="33" t="s">
         <v>270</v>
       </c>
       <c r="B64">
@@ -15273,7 +15313,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B65">
@@ -15296,7 +15336,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="33" t="s">
         <v>272</v>
       </c>
       <c r="B66">
@@ -15319,7 +15359,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="33" t="s">
         <v>273</v>
       </c>
       <c r="B67">
@@ -15342,7 +15382,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="33" t="s">
         <v>274</v>
       </c>
       <c r="B68">
@@ -15383,30 +15423,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="35" t="s">
         <v>208</v>
       </c>
       <c r="B2">
@@ -15429,7 +15469,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>209</v>
       </c>
       <c r="B3">
@@ -15452,7 +15492,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="35" t="s">
         <v>210</v>
       </c>
       <c r="B4">
@@ -15475,7 +15515,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="35" t="s">
         <v>211</v>
       </c>
       <c r="B5">
@@ -15498,7 +15538,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="35" t="s">
         <v>212</v>
       </c>
       <c r="B6">
@@ -15521,7 +15561,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="35" t="s">
         <v>213</v>
       </c>
       <c r="B7">
@@ -15544,7 +15584,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="35" t="s">
         <v>214</v>
       </c>
       <c r="B8">
@@ -15567,7 +15607,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="35" t="s">
         <v>215</v>
       </c>
       <c r="B9">
@@ -15590,7 +15630,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="35" t="s">
         <v>216</v>
       </c>
       <c r="B10">
@@ -15613,7 +15653,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="35" t="s">
         <v>217</v>
       </c>
       <c r="B11">
@@ -15636,7 +15676,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="35" t="s">
         <v>218</v>
       </c>
       <c r="B12">
@@ -15659,7 +15699,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="35" t="s">
         <v>219</v>
       </c>
       <c r="B13">
@@ -15682,7 +15722,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="35" t="s">
         <v>220</v>
       </c>
       <c r="B14">
@@ -15705,7 +15745,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="35" t="s">
         <v>221</v>
       </c>
       <c r="B15">
@@ -15728,7 +15768,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="35" t="s">
         <v>222</v>
       </c>
       <c r="B16">
@@ -15751,7 +15791,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="35" t="s">
         <v>223</v>
       </c>
       <c r="B17">
@@ -15774,7 +15814,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="35" t="s">
         <v>224</v>
       </c>
       <c r="B18">
@@ -15797,7 +15837,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="35" t="s">
         <v>225</v>
       </c>
       <c r="B19">
@@ -15820,7 +15860,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="35" t="s">
         <v>226</v>
       </c>
       <c r="B20">
@@ -15843,7 +15883,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="35" t="s">
         <v>227</v>
       </c>
       <c r="B21">
@@ -15866,7 +15906,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="35" t="s">
         <v>228</v>
       </c>
       <c r="B22">
@@ -15889,7 +15929,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B23">
@@ -15912,7 +15952,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="35" t="s">
         <v>230</v>
       </c>
       <c r="B24">
@@ -15935,7 +15975,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="35" t="s">
         <v>231</v>
       </c>
       <c r="B25">
@@ -15958,7 +15998,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="35" t="s">
         <v>232</v>
       </c>
       <c r="B26">
@@ -15981,7 +16021,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="35" t="s">
         <v>233</v>
       </c>
       <c r="B27">
@@ -16004,7 +16044,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="35" t="s">
         <v>234</v>
       </c>
       <c r="B28">
@@ -16027,7 +16067,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="35" t="s">
         <v>235</v>
       </c>
       <c r="B29">
@@ -16050,7 +16090,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="35" t="s">
         <v>236</v>
       </c>
       <c r="B30">
@@ -16073,7 +16113,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="35" t="s">
         <v>237</v>
       </c>
       <c r="B31">
@@ -16096,7 +16136,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="35" t="s">
         <v>238</v>
       </c>
       <c r="B32">
@@ -16119,7 +16159,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="35" t="s">
         <v>239</v>
       </c>
       <c r="B33">
@@ -16142,7 +16182,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="35" t="s">
         <v>240</v>
       </c>
       <c r="B34">
@@ -16165,7 +16205,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="35" t="s">
         <v>241</v>
       </c>
       <c r="B35">
@@ -16188,7 +16228,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="35" t="s">
         <v>242</v>
       </c>
       <c r="B36">
@@ -16211,7 +16251,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="35" t="s">
         <v>243</v>
       </c>
       <c r="B37">
@@ -16234,7 +16274,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="35" t="s">
         <v>244</v>
       </c>
       <c r="B38">
@@ -16257,7 +16297,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="35" t="s">
         <v>245</v>
       </c>
       <c r="B39">
@@ -16280,7 +16320,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="35" t="s">
         <v>246</v>
       </c>
       <c r="B40">
@@ -16303,7 +16343,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="35" t="s">
         <v>247</v>
       </c>
       <c r="B41">
@@ -16326,7 +16366,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="35" t="s">
         <v>248</v>
       </c>
       <c r="B42">
@@ -16349,7 +16389,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="35" t="s">
         <v>249</v>
       </c>
       <c r="B43">
@@ -16372,7 +16412,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="35" t="s">
         <v>250</v>
       </c>
       <c r="B44">
@@ -16395,7 +16435,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="35" t="s">
         <v>251</v>
       </c>
       <c r="B45">
@@ -16418,7 +16458,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="35" t="s">
         <v>252</v>
       </c>
       <c r="B46">
@@ -16441,7 +16481,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="35" t="s">
         <v>253</v>
       </c>
       <c r="B47">
@@ -16464,7 +16504,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="35" t="s">
         <v>254</v>
       </c>
       <c r="B48">
@@ -16487,7 +16527,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="35" t="s">
         <v>255</v>
       </c>
       <c r="B49">
@@ -16510,7 +16550,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="35" t="s">
         <v>256</v>
       </c>
       <c r="B50">
@@ -16533,7 +16573,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="35" t="s">
         <v>257</v>
       </c>
       <c r="B51">
@@ -16556,7 +16596,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="35" t="s">
         <v>258</v>
       </c>
       <c r="B52">
@@ -16579,7 +16619,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="35" t="s">
         <v>259</v>
       </c>
       <c r="B53">
@@ -16602,7 +16642,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="35" t="s">
         <v>260</v>
       </c>
       <c r="B54">
@@ -16625,7 +16665,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="35" t="s">
         <v>261</v>
       </c>
       <c r="B55">
@@ -16648,7 +16688,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="35" t="s">
         <v>262</v>
       </c>
       <c r="B56">
@@ -16671,7 +16711,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="35" t="s">
         <v>263</v>
       </c>
       <c r="B57">
@@ -16694,7 +16734,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="35" t="s">
         <v>264</v>
       </c>
       <c r="B58">
@@ -16717,7 +16757,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="35" t="s">
         <v>265</v>
       </c>
       <c r="B59">
@@ -16740,7 +16780,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="35" t="s">
         <v>266</v>
       </c>
       <c r="B60">
@@ -16763,7 +16803,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="35" t="s">
         <v>267</v>
       </c>
       <c r="B61">
@@ -16786,7 +16826,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="35" t="s">
         <v>268</v>
       </c>
       <c r="B62">
@@ -16809,7 +16849,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="35" t="s">
         <v>269</v>
       </c>
       <c r="B63">
@@ -16832,7 +16872,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="35" t="s">
         <v>270</v>
       </c>
       <c r="B64">
@@ -16855,7 +16895,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="35" t="s">
         <v>271</v>
       </c>
       <c r="B65">
@@ -16878,7 +16918,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="35" t="s">
         <v>272</v>
       </c>
       <c r="B66">
@@ -16901,7 +16941,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="35" t="s">
         <v>273</v>
       </c>
       <c r="B67">
@@ -16924,7 +16964,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="35" t="s">
         <v>274</v>
       </c>
       <c r="B68">
